--- a/debug/FDUSD_debug.xlsx
+++ b/debug/FDUSD_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE817"/>
+  <dimension ref="A1:AE824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -82917,7 +82917,7 @@
         <v>0.9973</v>
       </c>
       <c r="C817" t="n">
-        <v>0.9976</v>
+        <v>0.9979</v>
       </c>
       <c r="D817" t="n">
         <v>0.9972</v>
@@ -83006,6 +83006,713 @@
       </c>
       <c r="AE817" t="n">
         <v>0.9972</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C818" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G818" t="b">
+        <v>0</v>
+      </c>
+      <c r="H818" t="n">
+        <v/>
+      </c>
+      <c r="I818" t="n">
+        <v/>
+      </c>
+      <c r="J818" t="n">
+        <v/>
+      </c>
+      <c r="K818" t="n">
+        <v/>
+      </c>
+      <c r="L818" t="n">
+        <v/>
+      </c>
+      <c r="M818" t="n">
+        <v/>
+      </c>
+      <c r="N818" t="n">
+        <v/>
+      </c>
+      <c r="O818" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P818" t="n">
+        <v/>
+      </c>
+      <c r="Q818" t="n">
+        <v/>
+      </c>
+      <c r="R818" t="n">
+        <v/>
+      </c>
+      <c r="S818" t="n">
+        <v>7</v>
+      </c>
+      <c r="T818" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U818" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V818" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W818" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X818" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y818" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z818" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA818" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB818" t="n">
+        <v/>
+      </c>
+      <c r="AC818" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD818" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE818" t="n">
+        <v>0.9974</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="C819" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0.9972</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G819" t="b">
+        <v>0</v>
+      </c>
+      <c r="H819" t="n">
+        <v/>
+      </c>
+      <c r="I819" t="n">
+        <v/>
+      </c>
+      <c r="J819" t="n">
+        <v/>
+      </c>
+      <c r="K819" t="n">
+        <v/>
+      </c>
+      <c r="L819" t="n">
+        <v/>
+      </c>
+      <c r="M819" t="n">
+        <v/>
+      </c>
+      <c r="N819" t="n">
+        <v/>
+      </c>
+      <c r="O819" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P819" t="n">
+        <v/>
+      </c>
+      <c r="Q819" t="n">
+        <v/>
+      </c>
+      <c r="R819" t="n">
+        <v/>
+      </c>
+      <c r="S819" t="n">
+        <v>7</v>
+      </c>
+      <c r="T819" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U819" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V819" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W819" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X819" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y819" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z819" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA819" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB819" t="n">
+        <v/>
+      </c>
+      <c r="AC819" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD819" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE819" t="n">
+        <v>0.9972</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C820" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.9973</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G820" t="b">
+        <v>0</v>
+      </c>
+      <c r="H820" t="n">
+        <v/>
+      </c>
+      <c r="I820" t="n">
+        <v/>
+      </c>
+      <c r="J820" t="n">
+        <v/>
+      </c>
+      <c r="K820" t="n">
+        <v/>
+      </c>
+      <c r="L820" t="n">
+        <v/>
+      </c>
+      <c r="M820" t="n">
+        <v/>
+      </c>
+      <c r="N820" t="n">
+        <v/>
+      </c>
+      <c r="O820" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P820" t="n">
+        <v/>
+      </c>
+      <c r="Q820" t="n">
+        <v/>
+      </c>
+      <c r="R820" t="n">
+        <v/>
+      </c>
+      <c r="S820" t="n">
+        <v>7</v>
+      </c>
+      <c r="T820" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U820" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V820" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W820" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X820" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y820" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z820" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA820" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB820" t="n">
+        <v/>
+      </c>
+      <c r="AC820" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD820" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE820" t="n">
+        <v>0.9973</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="C821" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G821" t="b">
+        <v>0</v>
+      </c>
+      <c r="H821" t="n">
+        <v/>
+      </c>
+      <c r="I821" t="n">
+        <v/>
+      </c>
+      <c r="J821" t="n">
+        <v/>
+      </c>
+      <c r="K821" t="n">
+        <v/>
+      </c>
+      <c r="L821" t="n">
+        <v/>
+      </c>
+      <c r="M821" t="n">
+        <v/>
+      </c>
+      <c r="N821" t="n">
+        <v/>
+      </c>
+      <c r="O821" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P821" t="n">
+        <v/>
+      </c>
+      <c r="Q821" t="n">
+        <v/>
+      </c>
+      <c r="R821" t="n">
+        <v/>
+      </c>
+      <c r="S821" t="n">
+        <v>7</v>
+      </c>
+      <c r="T821" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U821" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V821" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W821" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X821" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y821" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z821" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA821" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB821" t="n">
+        <v/>
+      </c>
+      <c r="AC821" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD821" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE821" t="n">
+        <v>0.9974</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="C822" t="n">
+        <v>0.9981</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G822" t="b">
+        <v>0</v>
+      </c>
+      <c r="H822" t="n">
+        <v/>
+      </c>
+      <c r="I822" t="n">
+        <v/>
+      </c>
+      <c r="J822" t="n">
+        <v/>
+      </c>
+      <c r="K822" t="n">
+        <v/>
+      </c>
+      <c r="L822" t="n">
+        <v/>
+      </c>
+      <c r="M822" t="n">
+        <v/>
+      </c>
+      <c r="N822" t="n">
+        <v/>
+      </c>
+      <c r="O822" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P822" t="n">
+        <v/>
+      </c>
+      <c r="Q822" t="n">
+        <v/>
+      </c>
+      <c r="R822" t="n">
+        <v/>
+      </c>
+      <c r="S822" t="n">
+        <v>7</v>
+      </c>
+      <c r="T822" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U822" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V822" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W822" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X822" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y822" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z822" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA822" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB822" t="n">
+        <v/>
+      </c>
+      <c r="AC822" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD822" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE822" t="n">
+        <v>0.9976</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="C823" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.9978</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0.9978</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G823" t="b">
+        <v>0</v>
+      </c>
+      <c r="H823" t="n">
+        <v/>
+      </c>
+      <c r="I823" t="n">
+        <v/>
+      </c>
+      <c r="J823" t="n">
+        <v/>
+      </c>
+      <c r="K823" t="n">
+        <v/>
+      </c>
+      <c r="L823" t="n">
+        <v/>
+      </c>
+      <c r="M823" t="n">
+        <v/>
+      </c>
+      <c r="N823" t="n">
+        <v/>
+      </c>
+      <c r="O823" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P823" t="n">
+        <v/>
+      </c>
+      <c r="Q823" t="n">
+        <v/>
+      </c>
+      <c r="R823" t="n">
+        <v/>
+      </c>
+      <c r="S823" t="n">
+        <v>7</v>
+      </c>
+      <c r="T823" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U823" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V823" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W823" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X823" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y823" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z823" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA823" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB823" t="n">
+        <v/>
+      </c>
+      <c r="AC823" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD823" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE823" t="n">
+        <v>0.9978</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>0.9978</v>
+      </c>
+      <c r="C824" t="n">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0.9978</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G824" t="b">
+        <v>0</v>
+      </c>
+      <c r="H824" t="n">
+        <v/>
+      </c>
+      <c r="I824" t="n">
+        <v/>
+      </c>
+      <c r="J824" t="n">
+        <v/>
+      </c>
+      <c r="K824" t="n">
+        <v/>
+      </c>
+      <c r="L824" t="n">
+        <v/>
+      </c>
+      <c r="M824" t="n">
+        <v/>
+      </c>
+      <c r="N824" t="n">
+        <v/>
+      </c>
+      <c r="O824" t="n">
+        <v>1.2026</v>
+      </c>
+      <c r="P824" t="n">
+        <v/>
+      </c>
+      <c r="Q824" t="n">
+        <v/>
+      </c>
+      <c r="R824" t="n">
+        <v/>
+      </c>
+      <c r="S824" t="n">
+        <v>7</v>
+      </c>
+      <c r="T824" t="n">
+        <v>0.6734560000000001</v>
+      </c>
+      <c r="U824" t="n">
+        <v>0.625352</v>
+      </c>
+      <c r="V824" t="n">
+        <v>0.553196</v>
+      </c>
+      <c r="W824" t="n">
+        <v>0.493066</v>
+      </c>
+      <c r="X824" t="n">
+        <v>0.42091</v>
+      </c>
+      <c r="Y824" t="n">
+        <v>0.336728</v>
+      </c>
+      <c r="Z824" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AA824" t="n">
+        <v>0.228494</v>
+      </c>
+      <c r="AB824" t="n">
+        <v/>
+      </c>
+      <c r="AC824" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD824" t="n">
+        <v>0.252546</v>
+      </c>
+      <c r="AE824" t="n">
+        <v>0.9978</v>
       </c>
     </row>
   </sheetData>
